--- a/5조_Test Case_Test Result.xlsx
+++ b/5조_Test Case_Test Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{675C2809-E622-1040-A4FC-10D89BC2CDDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A67720-3CE1-4FB6-A7CF-06B59D53BB84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12940" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -26,127 +26,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>Basic Flow #</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FormClass. Action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Control Class.Operation( )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Entity Class.Operation( )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Scenario ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Use Case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Alternative Flow#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Test CaseID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Input Data Set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Expected Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Real Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PASS/FAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Register for Courses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Create a schecule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SC_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AF1. Time Collision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TC_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>중복된 과목 포함한 Input Data set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SC_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TC_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>**** Error 발생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Happy Input Data Set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Schecule 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Schedule 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Basic Flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SC_nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>마이페이지 조회 및 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이전루트 및 
 구매내역 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -196,7 +196,7 @@
       <t>.onCreate()-&gt;
 PreviousPathSpecificBoundary.finishPPBrand2()</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -226,7 +226,7 @@
 MypageController.finishPPBrand()
 &lt;-MypageController.finishPPBrand2 (callback2)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -254,23 +254,294 @@
 User.findppBrandDB()
 &lt;-User.finishPPBrand (callback)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-&gt;' 진행방향 / '&lt;-' 콜백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-User.finishPersonalInfo(callback)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPageController.finishPersonalInfo()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- Mypage.Controller.finishPersonalInfo2(callback2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangePersonalInfo.finishPersonalInfo2()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChangePersonalInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.onClickComplete(userSex,userAge)-&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MyPageControlle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r.personalchange(userSex,userAge)-&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.changePersonalInfo(Usersex,UserAge)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호 및 비선호 브랜드 조회 및 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreferNonPReferBoundary.onCreate()-&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPageController.getPreferRBands()-&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User.findPrefer()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- User.getPrefer(callback)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPageController.getPrfer()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- MypageController.getPrefer2(callback2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreferNonPreferBoundary.getPrefer2()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호 브랜드 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreferNonPreferBoundary.onCreat()-&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPageController.getNonPreferBrands()-&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User.findNonPrefer()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- User.getNonPrefer(callback)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPageController.getNonPrefer()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- MyPageController.getNonPrefer2(callback2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreferNonPreferBoundary.getNonPrefer2()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비선호 브랜드 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreferNonPrefer.onClickListener(selectedBrand)-&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPageController.deleteBrand(selectedBrand)-&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User.deleteSelectedBrand(selectedBrand)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-User.finishDeleteBrands(callback)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPageController.finishDeleteBrand()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreferNonPrefer.finishDeleteBrand2()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddPreferNonPrefer.onCreate()-&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPageController.getCatBrands(selectedCategory)-&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category.findBrands(selectedCategory)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- Category.finishFindBrands(callback)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPageController.finishFindBRands()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-MyPageController.finishDeleteBrand2(callback2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-MyPageController.finishFindBrand2(callback2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddPreferNonPrefer.finishFindBrand2()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-User.finishadd(callback)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPageController.finishadd()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-MyPageController.finishadd2(callback2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddPreferNonPrefer.finishadd2()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 제품군의 브랜드 리스트업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddPreferNonPrefer.onClickListener(selectedBRand,preferNon)-&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPageController.addBrand(selectedBrand,preferNon)-&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User.addBrandUser(selectedBrand,preferNon)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 브랜드 선호/비선호 리스트에 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,6 +568,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -306,7 +594,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -329,11 +617,380 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,21 +1000,107 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -638,165 +1381,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G16"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="83" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="5" max="5" width="49.25" customWidth="1"/>
+    <col min="6" max="6" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5" customWidth="1"/>
+    <col min="8" max="8" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="E2" s="9" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="108">
-      <c r="B4" s="4" t="s">
+      <c r="H3" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="H4" s="53"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="19"/>
+      <c r="C5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="20"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="47"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="33"/>
+      <c r="C8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="33"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="F9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="33"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="C11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="F12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="37"/>
+    </row>
+    <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="C14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="F15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="50"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="26"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="38"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="26"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="37"/>
+    </row>
+    <row r="22" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="38"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="18">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -810,20 +1758,20 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.625" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -852,7 +1800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -879,7 +1827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
@@ -908,7 +1856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -919,7 +1867,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -930,7 +1878,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -941,7 +1889,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -952,7 +1900,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -963,7 +1911,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -974,7 +1922,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -985,7 +1933,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -996,7 +1944,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1007,7 +1955,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1018,7 +1966,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1029,7 +1977,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1041,7 +1989,7 @@
       <c r="J17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/5조_Test Case_Test Result.xlsx
+++ b/5조_Test Case_Test Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A67720-3CE1-4FB6-A7CF-06B59D53BB84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25582BED-1B79-0247-AA6B-DAD74C970781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -523,12 +523,38 @@
     <t>선택된 브랜드 선호/비선호 리스트에 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>새로운 유저 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 및 로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+LoginController.register(name,id,pw,sex,age,preferbrands,nonpreferbrands)-&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+User.register(name,id,pw,sex,age,preferbrands,nonpreferbrands)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 유저 생성 (DB에저장)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainActivity.onClickRegister()-&gt;Register.onCreate()-&gt;PreferNonpreferBrandSelectBoundary.onClickFinishRegister()-&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,7 +620,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -651,21 +677,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -990,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1006,9 +1017,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1016,91 +1024,108 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1381,356 +1406,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L22"/>
+  <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="83" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.125" customWidth="1"/>
-    <col min="5" max="5" width="49.25" customWidth="1"/>
-    <col min="6" max="6" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.5" customWidth="1"/>
-    <col min="8" max="8" width="31.75" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12">
       <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="18" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:12" ht="109" thickBot="1">
+      <c r="B4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
-      <c r="C5" s="21" t="s">
+      <c r="H4" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="35"/>
+      <c r="C5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="7"/>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="36"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="46"/>
-    </row>
-    <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="20"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30" t="s">
+      <c r="H6" s="50"/>
+    </row>
+    <row r="7" spans="2:12" ht="18" thickBot="1">
+      <c r="B7" s="37"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
-      <c r="C8" s="21" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="51"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="21"/>
+      <c r="C8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="7"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="21"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="33"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="31" t="s">
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="2:12" ht="18" thickBot="1">
+      <c r="B10" s="21"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G10" s="20"/>
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="2"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="B12" s="2"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="37"/>
-    </row>
-    <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="53"/>
+    </row>
+    <row r="13" spans="2:12" ht="18" thickBot="1">
       <c r="B13" s="2"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="31" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G13" s="20"/>
+      <c r="H13" s="54"/>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="2"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="52" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12">
       <c r="B15" s="2"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="53"/>
+    </row>
+    <row r="16" spans="2:12" ht="18" thickBot="1">
       <c r="B16" s="2"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="31" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="21" t="s">
+      <c r="G16" s="32"/>
+      <c r="H16" s="54"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="C17" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="26"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="39" t="s">
+    <row r="18" spans="2:8">
+      <c r="C18" s="42"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="37"/>
-    </row>
-    <row r="19" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="43" t="s">
+      <c r="H18" s="53"/>
+    </row>
+    <row r="19" spans="2:8" ht="18" thickBot="1">
+      <c r="C19" s="43"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="38"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="21" t="s">
+      <c r="G19" s="28"/>
+      <c r="H19" s="54"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="C20" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="52" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="26"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="39" t="s">
+    <row r="21" spans="2:8">
+      <c r="C21" s="42"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="37"/>
-    </row>
-    <row r="22" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="43" t="s">
+      <c r="H21" s="53"/>
+    </row>
+    <row r="22" spans="2:8" ht="18" thickBot="1">
+      <c r="C22" s="43"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="38"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="54"/>
+    </row>
+    <row r="23" spans="2:8" ht="91" thickBot="1">
+      <c r="B23" s="10"/>
+      <c r="C23" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="18" thickBot="1">
+      <c r="B24" s="10"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
@@ -1738,11 +1794,12 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="H14:H16"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="H20:H22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1758,20 +1815,20 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1800,7 +1857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10">
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1827,7 +1884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10">
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1856,7 +1913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10">
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1867,7 +1924,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10">
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1878,7 +1935,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1889,7 +1946,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1900,7 +1957,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1911,7 +1968,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1922,7 +1979,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1933,7 +1990,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1944,7 +2001,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1955,7 +2012,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1966,7 +2023,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1977,7 +2034,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>

--- a/5조_Test Case_Test Result.xlsx
+++ b/5조_Test Case_Test Result.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25582BED-1B79-0247-AA6B-DAD74C970781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22044" windowHeight="9888"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
     <sheet name="Test Case_Result" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,127 +25,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
   <si>
     <t>Basic Flow #</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FormClass. Action</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Control Class.Operation( )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Entity Class.Operation( )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Scenario ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Use Case</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Alternative Flow#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Test CaseID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Input Data Set</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Expected Result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Real Result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PASS/FAIL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Register for Courses</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Create a schecule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SC_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AF1. Time Collision</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TC_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>중복된 과목 포함한 Input Data set</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SC_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TC_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>**** Error 발생</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Happy Input Data Set</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Schecule 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FAIL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Schedule 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PASS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Basic Flow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SC_nn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>마이페이지 조회 및 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이전루트 및 
 구매내역 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -196,7 +195,7 @@
       <t>.onCreate()-&gt;
 PreviousPathSpecificBoundary.finishPPBrand2()</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -226,7 +225,7 @@
 MypageController.finishPPBrand()
 &lt;-MypageController.finishPPBrand2 (callback2)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -254,31 +253,31 @@
 User.findppBrandDB()
 &lt;-User.finishPPBrand (callback)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>-&gt;' 진행방향 / '&lt;-' 콜백</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>개인정보 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-User.finishPersonalInfo(callback)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishPersonalInfo()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- Mypage.Controller.finishPersonalInfo2(callback2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ChangePersonalInfo.finishPersonalInfo2()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -303,7 +302,7 @@
       </rPr>
       <t>.onClickComplete(userSex,userAge)-&gt;</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -328,7 +327,7 @@
       </rPr>
       <t>r.personalchange(userSex,userAge)-&gt;</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -353,213 +352,275 @@
       </rPr>
       <t>.changePersonalInfo(Usersex,UserAge)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>선호 및 비선호 브랜드 조회 및 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPReferBoundary.onCreate()-&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getPreferRBands()-&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>User.findPrefer()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- User.getPrefer(callback)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getPrfer()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- MypageController.getPrefer2(callback2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPreferBoundary.getPrefer2()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>선호 브랜드 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPreferBoundary.onCreat()-&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getNonPreferBrands()-&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>User.findNonPrefer()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- User.getNonPrefer(callback)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getNonPrefer()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- MyPageController.getNonPrefer2(callback2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPreferBoundary.getNonPrefer2()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>비선호 브랜드 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPrefer.onClickListener(selectedBrand)-&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.deleteBrand(selectedBrand)-&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>User.deleteSelectedBrand(selectedBrand)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-User.finishDeleteBrands(callback)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishDeleteBrand()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPrefer.finishDeleteBrand2()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>브랜드 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.onCreate()-&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getCatBrands(selectedCategory)-&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Category.findBrands(selectedCategory)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- Category.finishFindBrands(callback)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishFindBRands()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-MyPageController.finishDeleteBrand2(callback2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-MyPageController.finishFindBrand2(callback2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.finishFindBrand2()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-User.finishadd(callback)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishadd()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-MyPageController.finishadd2(callback2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.finishadd2()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>선택된 제품군의 브랜드 리스트업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.onClickListener(selectedBRand,preferNon)-&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.addBrand(selectedBrand,preferNon)-&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>User.addBrandUser(selectedBrand,preferNon)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>선택된 브랜드 선호/비선호 리스트에 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>새로운 유저 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>회원가입 및 로그인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 LoginController.register(name,id,pw,sex,age,preferbrands,nonpreferbrands)-&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 User.register(name,id,pw,sex,age,preferbrands,nonpreferbrands)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>새로운 유저 생성 (DB에저장)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MainActivity.onClickRegister()-&gt;Register.onCreate()-&gt;PreferNonpreferBrandSelectBoundary.onClickFinishRegister()-&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동선따라 쇼핑하기 및 피드백</t>
+  </si>
+  <si>
+    <t>동선따라 쇼핑하기 및 피드백</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">동선따라 쇼핑하기 </t>
+  </si>
+  <si>
+    <t>피드백</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeedbackActivity.onCreate() -&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShoppingActivity.onCreate() -&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brand()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- BrandAdapter(Brand)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShoppingActivity.checkBought(id, brandName)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShoppingActivity.checkNotBought(id, brandName)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- FeedbackAdapter(Brand)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeedbackActicity.checkRating(id, grade, brandName)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 평점 입력 (DB에 저장)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 비구매 입력 (DB에 저장)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -620,7 +681,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -997,11 +1058,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1013,11 +1153,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1027,20 +1167,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1063,6 +1203,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1072,27 +1248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,9 +1257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,17 +1266,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1405,37 +1604,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.3984375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="30.19921875" style="35" customWidth="1"/>
     <col min="5" max="5" width="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.5" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="31.69921875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="18" thickBot="1">
+    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -1447,18 +1646,18 @@
       <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="109" thickBot="1">
+    <row r="4" spans="2:12" ht="105" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="39" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -1470,17 +1669,17 @@
       <c r="G4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="39" t="s">
         <v>29</v>
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="35"/>
-      <c r="C5" s="41" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="47"/>
+      <c r="C5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="50" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -1492,12 +1691,12 @@
       <c r="G5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="49"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="36"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="46"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="48"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
         <v>36</v>
@@ -1505,12 +1704,12 @@
       <c r="G6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="2:12" ht="18" thickBot="1">
-      <c r="B7" s="37"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="47"/>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="49"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="18" t="s">
         <v>38</v>
       </c>
@@ -1518,14 +1717,14 @@
         <v>37</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="51"/>
-    </row>
-    <row r="8" spans="2:12">
+      <c r="H7" s="43"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="21"/>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="50" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="22" t="s">
@@ -1537,15 +1736,15 @@
       <c r="G8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="53" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="21"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="46"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>47</v>
@@ -1553,12 +1752,12 @@
       <c r="G9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="53"/>
-    </row>
-    <row r="10" spans="2:12" ht="18" thickBot="1">
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="21"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="47"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="19" t="s">
         <v>49</v>
       </c>
@@ -1566,14 +1765,14 @@
         <v>48</v>
       </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="54"/>
-    </row>
-    <row r="11" spans="2:12">
+      <c r="H10" s="55"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="50" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="22" t="s">
@@ -1585,14 +1784,14 @@
       <c r="G11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="53" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="46"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>56</v>
@@ -1600,12 +1799,12 @@
       <c r="G12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="53"/>
-    </row>
-    <row r="13" spans="2:12" ht="18" thickBot="1">
+      <c r="H12" s="54"/>
+    </row>
+    <row r="13" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="2"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="47"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="19" t="s">
         <v>58</v>
       </c>
@@ -1613,14 +1812,14 @@
         <v>57</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="54"/>
-    </row>
-    <row r="14" spans="2:12">
+      <c r="H13" s="55"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="50" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -1632,14 +1831,14 @@
       <c r="G14" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="53" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="46"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>64</v>
@@ -1647,12 +1846,12 @@
       <c r="G15" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="53"/>
-    </row>
-    <row r="16" spans="2:12" ht="18" thickBot="1">
+      <c r="H15" s="54"/>
+    </row>
+    <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="47"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="19" t="s">
         <v>65</v>
       </c>
@@ -1660,13 +1859,13 @@
         <v>72</v>
       </c>
       <c r="G16" s="32"/>
-      <c r="H16" s="54"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="C17" s="41" t="s">
+      <c r="H16" s="55"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="50" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="26" t="s">
@@ -1678,13 +1877,13 @@
       <c r="G17" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="53" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="C18" s="42"/>
-      <c r="D18" s="46"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C18" s="45"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="9"/>
       <c r="F18" s="24" t="s">
         <v>71</v>
@@ -1692,11 +1891,11 @@
       <c r="G18" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="53"/>
-    </row>
-    <row r="19" spans="2:8" ht="18" thickBot="1">
-      <c r="C19" s="43"/>
-      <c r="D19" s="47"/>
+      <c r="H18" s="54"/>
+    </row>
+    <row r="19" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="46"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="28" t="s">
         <v>74</v>
       </c>
@@ -1704,13 +1903,13 @@
         <v>73</v>
       </c>
       <c r="G19" s="28"/>
-      <c r="H19" s="54"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="C20" s="41" t="s">
+      <c r="H19" s="55"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C20" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="50" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -1722,13 +1921,13 @@
       <c r="G20" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H20" s="53" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
-      <c r="C21" s="42"/>
-      <c r="D21" s="46"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C21" s="45"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="9"/>
       <c r="F21" s="24" t="s">
         <v>76</v>
@@ -1736,11 +1935,11 @@
       <c r="G21" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="53"/>
-    </row>
-    <row r="22" spans="2:8" ht="18" thickBot="1">
-      <c r="C22" s="43"/>
-      <c r="D22" s="47"/>
+      <c r="H21" s="54"/>
+    </row>
+    <row r="22" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="46"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="28" t="s">
         <v>78</v>
       </c>
@@ -1748,45 +1947,118 @@
         <v>77</v>
       </c>
       <c r="G22" s="28"/>
-      <c r="H22" s="54"/>
-    </row>
-    <row r="23" spans="2:8" ht="91" thickBot="1">
+      <c r="H22" s="55"/>
+    </row>
+    <row r="23" spans="2:8" ht="87.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="10"/>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="44" t="s">
+      <c r="H23" s="64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="18" thickBot="1">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="10"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="44"/>
+      <c r="C24" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="62"/>
+      <c r="G24" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C25" s="57"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C26" s="59"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="76"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C27" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C28" s="59"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="78"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
+  <mergeCells count="24">
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="H20:H22"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
@@ -1794,41 +2066,40 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="H14:H16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.296875" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1857,7 +2128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1884,7 +2155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1913,7 +2184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1924,7 +2195,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1935,7 +2206,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1946,7 +2217,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1957,7 +2228,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1968,7 +2239,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1979,7 +2250,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1990,7 +2261,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2001,7 +2272,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2012,7 +2283,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2023,7 +2294,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2034,7 +2305,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2046,7 +2317,7 @@
       <c r="J17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/5조_Test Case_Test Result.xlsx
+++ b/5조_Test Case_Test Result.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jin_k\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848712D7-8658-4CA7-A27A-1E779CC10BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22044" windowHeight="9888"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Case_Result" sheetId="2" r:id="rId2"/>
+    <sheet name="UC 1 회원 가입 및 초기 정보 설정" sheetId="3" r:id="rId2"/>
+    <sheet name="UC 2 쇼핑 동선 짜기" sheetId="2" r:id="rId3"/>
+    <sheet name="UC 3 동선 따라 쇼핑하기 및 피드백" sheetId="4" r:id="rId4"/>
+    <sheet name="UC 4 마이 페이지 조회 및 수정" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,127 +29,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="237">
   <si>
     <t>Basic Flow #</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FormClass. Action</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Control Class.Operation( )</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Entity Class.Operation( )</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Scenario ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Use Case</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Alternative Flow#</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Test CaseID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Input Data Set</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Expected Result</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Real Result</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PASS/FAIL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Register for Courses</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create a schecule</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SC_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF1. Time Collision</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TC_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복된 과목 포함한 Input Data set</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SC_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TC_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>**** Error 발생</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Happy Input Data Set</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schecule 생성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FAIL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Schedule 생성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PASS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Basic Flow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SC_nn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>마이페이지 조회 및 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>이전루트 및 
 구매내역 조회</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -195,7 +171,7 @@
       <t>.onCreate()-&gt;
 PreviousPathSpecificBoundary.finishPPBrand2()</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -225,7 +201,7 @@
 MypageController.finishPPBrand()
 &lt;-MypageController.finishPPBrand2 (callback2)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -253,31 +229,31 @@
 User.findppBrandDB()
 &lt;-User.finishPPBrand (callback)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>-&gt;' 진행방향 / '&lt;-' 콜백</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>개인정보 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-User.finishPersonalInfo(callback)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishPersonalInfo()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- Mypage.Controller.finishPersonalInfo2(callback2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ChangePersonalInfo.finishPersonalInfo2()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -302,7 +278,7 @@
       </rPr>
       <t>.onClickComplete(userSex,userAge)-&gt;</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -327,7 +303,7 @@
       </rPr>
       <t>r.personalchange(userSex,userAge)-&gt;</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -352,267 +328,835 @@
       </rPr>
       <t>.changePersonalInfo(Usersex,UserAge)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>선호 및 비선호 브랜드 조회 및 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPReferBoundary.onCreate()-&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getPreferRBands()-&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>User.findPrefer()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- User.getPrefer(callback)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getPrfer()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- MypageController.getPrefer2(callback2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPreferBoundary.getPrefer2()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>선호 브랜드 조회</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPreferBoundary.onCreat()-&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getNonPreferBrands()-&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>User.findNonPrefer()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- User.getNonPrefer(callback)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getNonPrefer()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- MyPageController.getNonPrefer2(callback2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPreferBoundary.getNonPrefer2()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비선호 브랜드 조회</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPrefer.onClickListener(selectedBrand)-&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.deleteBrand(selectedBrand)-&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>User.deleteSelectedBrand(selectedBrand)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-User.finishDeleteBrands(callback)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishDeleteBrand()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPrefer.finishDeleteBrand2()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>브랜드 삭제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.onCreate()-&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getCatBrands(selectedCategory)-&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Category.findBrands(selectedCategory)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- Category.finishFindBrands(callback)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishFindBRands()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-MyPageController.finishDeleteBrand2(callback2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-MyPageController.finishFindBrand2(callback2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.finishFindBrand2()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-User.finishadd(callback)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishadd()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-MyPageController.finishadd2(callback2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.finishadd2()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>선택된 제품군의 브랜드 리스트업</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.onClickListener(selectedBRand,preferNon)-&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.addBrand(selectedBrand,preferNon)-&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>User.addBrandUser(selectedBrand,preferNon)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>선택된 브랜드 선호/비선호 리스트에 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>새로운 유저 생성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>회원가입 및 로그인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 LoginController.register(name,id,pw,sex,age,preferbrands,nonpreferbrands)-&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 User.register(name,id,pw,sex,age,preferbrands,nonpreferbrands)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>새로운 유저 생성 (DB에저장)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MainActivity.onClickRegister()-&gt;Register.onCreate()-&gt;PreferNonpreferBrandSelectBoundary.onClickFinishRegister()-&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>동선따라 쇼핑하기 및 피드백</t>
   </si>
   <si>
     <t>동선따라 쇼핑하기 및 피드백</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">동선따라 쇼핑하기 </t>
   </si>
   <si>
     <t>피드백</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FeedbackActivity.onCreate() -&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ShoppingActivity.onCreate() -&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Brand()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- BrandAdapter(Brand)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ShoppingActivity.checkBought(id, brandName)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ShoppingActivity.checkNotBought(id, brandName)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- FeedbackAdapter(Brand)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FeedbackActicity.checkRating(id, grade, brandName)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>브랜드 평점 입력 (DB에 저장)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>구매 비구매 입력 (DB에 저장)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑 동선 짜기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 추천 받기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecommendBrand.onCreate()-&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecommendBrandController.pearsonCheck(Id, AllUserMap)=&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑 동선 짜기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 브랜드 선택</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_03</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 브랜드 수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 선택</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_04</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_06</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택완료 메시지 출력, 추천 브랜드 리스트로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 미선택 메시지 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택완료 메시지 출력, 동선 선택 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 미선택 메시지 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동선 선택</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_07</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_08</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 동선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>path1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>path2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_04</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 및 초기 정보 설정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 정보 입력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>여</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호/비선호 브랜드 선택 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 정보 미입력 메시지 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호/비선호 브랜드 선택</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 카테고리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1, c2, c4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진근</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호 브랜드 수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비선호 브랜드 수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 위치 입력 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 수 미충족 메시지 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_09</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_03</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지 조회 및 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동선 따라 쇼핑하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매한 브랜드 수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매하지 않은 브랜드 수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 브랜드 수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3, c5, c9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동선 따라 쇼핑하기 및 피드백</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF2.1 카테고리 미선택</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF2.3 선호 브랜드 중복</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF2.2 브랜드 선택 없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF2.4 브랜드 정보 접근 실패</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF1.1 필수 정보 미입력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF1.2 브랜드 수 미충족</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF3.1 구매여부 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 버튼을 다시 눌러 수정, 피드백 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_06</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_07</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_08</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_09</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>만족도 점수를 매긴 브랜드 수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF3.2 구매여부 미표시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매여부 미표시 브랜드는 구매하지 않은 것으로 처리, 피드백 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>어플리케이션 종료(경로 DB에 저장)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF3.3 피드백 도중 종료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>어플리케이션 종료(경로 DB에 저장되지 않음)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_19</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF3.4 피드백할 브랜드가 남아있음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백할 브랜드가 남았다는 메시지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 선택</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 메뉴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 정보 수정 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 루트 및 구매 내역 조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 루트 및 구매 내역 조회 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호/비선호 브랜드 조회 및 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호/비선호 브랜드 조회 및 수정 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_19</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>남</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>path1 선택, 쇼핑 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>path2 선택, 쇼핑 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근 실패 브랜드가 제외된 path1 선택, 쇼핑 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별, 연령 정보 변경</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4.1 정보 미입력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 개인정보 유지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>루트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>path1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 루트의 방문 브랜드, 구매 브랜드, 만족도 리스트업</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4.2 경로 없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 정보가 없다는 메시지 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_27</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호 브랜드 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비선호 브랜드 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비선호 브랜드 추가, 선호도 변화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_28</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호 브랜드 추가, 선호도 변화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_29</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 3개의 선호/비선호 브랜드가 있어야 한다는 메시지 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4.3 최소 선호/비선호 브랜드 개수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 선택</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategorySelectBoundary.onCreate()-&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 브랜드 리스트업</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathSelectBoundary.onCreate()-&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,7 +1225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1137,11 +1681,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1153,11 +1743,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1167,20 +1757,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1206,7 +1796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1218,7 +1808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1230,53 +1820,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1284,28 +1829,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1324,6 +1869,120 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1604,11 +2263,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1624,7 +2283,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1635,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>1</v>
@@ -1647,418 +2306,564 @@
         <v>3</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="105" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="76"/>
+      <c r="C5" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="47"/>
-      <c r="C5" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="50" t="s">
+      <c r="F5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="H5" s="41"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B6" s="48"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="51"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H6" s="42"/>
     </row>
     <row r="7" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="49"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="69"/>
       <c r="E7" s="18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="43"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="21"/>
-      <c r="C8" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>42</v>
+      <c r="C8" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="73" t="s">
         <v>44</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>51</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="21"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="54"/>
+        <v>39</v>
+      </c>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="21"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="55"/>
+      <c r="H10" s="75"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
-      <c r="C11" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>42</v>
+      <c r="C11" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="73" t="s">
         <v>52</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="51"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="54"/>
+        <v>48</v>
+      </c>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="2"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="52"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="19" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="55"/>
+      <c r="H13" s="75"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
-      <c r="C14" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>42</v>
+      <c r="C14" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="53" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="51"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="54"/>
+        <v>56</v>
+      </c>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="52"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="G16" s="32"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="55"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C17" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C18" s="45"/>
-      <c r="D18" s="51"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="9"/>
       <c r="F18" s="24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="54"/>
+        <v>63</v>
+      </c>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="46"/>
-      <c r="D19" s="52"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C20" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="55"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C20" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>81</v>
-      </c>
       <c r="G20" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="53" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="H20" s="73" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C21" s="45"/>
-      <c r="D21" s="51"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="9"/>
       <c r="F21" s="24" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="54"/>
+        <v>68</v>
+      </c>
+      <c r="H21" s="74"/>
     </row>
     <row r="22" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="46"/>
-      <c r="D22" s="52"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G22" s="28"/>
-      <c r="H22" s="55"/>
+      <c r="H22" s="75"/>
     </row>
     <row r="23" spans="2:8" ht="87.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="10"/>
       <c r="C23" s="38" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="64" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="10"/>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="83" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="89" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="10"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="90"/>
+    </row>
+    <row r="26" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="91"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="10"/>
+      <c r="C27" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="86"/>
+      <c r="H27" s="89" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="10"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="90"/>
+    </row>
+    <row r="29" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="10"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="91"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="10"/>
+      <c r="C30" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="92" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="10"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="90"/>
+    </row>
+    <row r="32" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="91"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B33" s="10"/>
+      <c r="C33" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="G33" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B34" s="10"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="H34" s="60"/>
+    </row>
+    <row r="35" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="10"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="G35" s="9"/>
+      <c r="H35" s="61"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="10"/>
+      <c r="C36" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="57"/>
+      <c r="G36" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C25" s="57"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="75"/>
-    </row>
-    <row r="26" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="59"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="76"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C27" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="50" t="s">
+    </row>
+    <row r="37" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="66"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" s="77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="59"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="78"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
+      <c r="H37" s="63"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C38" s="82"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="79"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C39" s="81"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="79"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C40" s="81"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="79"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C41" s="45"/>
+      <c r="D41" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="43">
     <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
@@ -2066,259 +2871,2038 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="H14:H16"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF654078-5CCB-4471-828A-B938EED8C07B}">
+  <dimension ref="A2:O20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20.296875" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="9.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.09765625" customWidth="1"/>
+    <col min="3" max="3" width="25.3984375" customWidth="1"/>
+    <col min="4" max="4" width="21.19921875" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="11" max="11" width="14.19921875" customWidth="1"/>
+    <col min="12" max="12" width="17.3984375" customWidth="1"/>
+    <col min="13" max="13" width="49.796875" customWidth="1"/>
+    <col min="14" max="14" width="21.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E2" s="93" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1234</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="2">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1234</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1234</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="2">
         <v>20</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1234</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="2">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A4:K21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20.296875" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="51.19921875" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="9.296875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <mergeCells count="6">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E398411E-AD86-43C4-BBBA-D0FBDAAF6CC7}">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="26.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" customWidth="1"/>
+    <col min="5" max="5" width="22.3984375" customWidth="1"/>
+    <col min="6" max="6" width="17.09765625" customWidth="1"/>
+    <col min="7" max="7" width="22.69921875" customWidth="1"/>
+    <col min="8" max="8" width="17.09765625" customWidth="1"/>
+    <col min="9" max="9" width="26.796875" customWidth="1"/>
+    <col min="10" max="10" width="43.5" customWidth="1"/>
+    <col min="11" max="11" width="16.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCD701B-C0F7-4519-83BB-8F4C21202B30}">
+  <dimension ref="A2:N21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.09765625" customWidth="1"/>
+    <col min="3" max="3" width="25.3984375" customWidth="1"/>
+    <col min="4" max="4" width="28.796875" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="28.69921875" customWidth="1"/>
+    <col min="8" max="8" width="16.8984375" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" customWidth="1"/>
+    <col min="12" max="12" width="49.796875" customWidth="1"/>
+    <col min="13" max="13" width="21.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" s="2">
+        <v>30</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/5조_Test Case_Test Result.xlsx
+++ b/5조_Test Case_Test Result.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jin_k\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848712D7-8658-4CA7-A27A-1E779CC10BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E1567D-8590-4BD7-8D9A-EFD18CA70A95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
-    <sheet name="UC 1 회원 가입 및 초기 정보 설정" sheetId="3" r:id="rId2"/>
+    <sheet name="UC 1 초기 개인 정보 설정 및 선호,비선호 브랜드설정" sheetId="3" r:id="rId2"/>
     <sheet name="UC 2 쇼핑 동선 짜기" sheetId="2" r:id="rId3"/>
     <sheet name="UC 3 동선 따라 쇼핑하기 및 피드백" sheetId="4" r:id="rId4"/>
     <sheet name="UC 4 마이 페이지 조회 및 수정" sheetId="6" r:id="rId5"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="238">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -675,10 +675,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입 및 초기 정보 설정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>개인 정보 입력</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1136,6 +1132,13 @@
   </si>
   <si>
     <t>PathSelectBoundary.onCreate()-&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 개인 정보 설정 및 선호, 비선호 브랜드 설정</t>
+  </si>
+  <si>
+    <t>초기 개인 정보 설정 및 선호, 비선호 브랜드 설정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1855,6 +1858,90 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1879,84 +1966,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1972,16 +1981,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2266,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:H35"/>
+    <sheetView topLeftCell="B9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2334,11 +2337,11 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="76"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="81" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -2353,9 +2356,9 @@
       <c r="H5" s="41"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B6" s="77"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="68"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
         <v>29</v>
@@ -2366,9 +2369,9 @@
       <c r="H6" s="42"/>
     </row>
     <row r="7" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="78"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="69"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="18" t="s">
         <v>31</v>
       </c>
@@ -2380,10 +2383,10 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="21"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="81" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="22" t="s">
@@ -2395,15 +2398,15 @@
       <c r="G8" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="73" t="s">
+      <c r="H8" s="84" t="s">
         <v>44</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="21"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="68"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>40</v>
@@ -2411,12 +2414,12 @@
       <c r="G9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="74"/>
+      <c r="H9" s="85"/>
     </row>
     <row r="10" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="21"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="69"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="19" t="s">
         <v>42</v>
       </c>
@@ -2424,14 +2427,14 @@
         <v>41</v>
       </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="75"/>
+      <c r="H10" s="86"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="81" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="22" t="s">
@@ -2443,14 +2446,14 @@
       <c r="G11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="84" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="68"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>49</v>
@@ -2458,12 +2461,12 @@
       <c r="G12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="74"/>
+      <c r="H12" s="85"/>
     </row>
     <row r="13" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="2"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="69"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="19" t="s">
         <v>51</v>
       </c>
@@ -2471,14 +2474,14 @@
         <v>50</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="75"/>
+      <c r="H13" s="86"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="81" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -2490,14 +2493,14 @@
       <c r="G14" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="84" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="68"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>57</v>
@@ -2505,12 +2508,12 @@
       <c r="G15" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="74"/>
+      <c r="H15" s="85"/>
     </row>
     <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="69"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="19" t="s">
         <v>58</v>
       </c>
@@ -2518,13 +2521,13 @@
         <v>65</v>
       </c>
       <c r="G16" s="32"/>
-      <c r="H16" s="75"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="81" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="26" t="s">
@@ -2536,13 +2539,13 @@
       <c r="G17" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="84" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C18" s="71"/>
-      <c r="D18" s="68"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="9"/>
       <c r="F18" s="24" t="s">
         <v>64</v>
@@ -2550,11 +2553,11 @@
       <c r="G18" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="74"/>
+      <c r="H18" s="85"/>
     </row>
     <row r="19" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="72"/>
-      <c r="D19" s="69"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="28" t="s">
         <v>67</v>
       </c>
@@ -2562,13 +2565,13 @@
         <v>66</v>
       </c>
       <c r="G19" s="28"/>
-      <c r="H19" s="75"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="81" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -2580,13 +2583,13 @@
       <c r="G20" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="73" t="s">
+      <c r="H20" s="84" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C21" s="71"/>
-      <c r="D21" s="68"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="9"/>
       <c r="F21" s="24" t="s">
         <v>69</v>
@@ -2594,11 +2597,11 @@
       <c r="G21" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="74"/>
+      <c r="H21" s="85"/>
     </row>
     <row r="22" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="72"/>
-      <c r="D22" s="69"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="28" t="s">
         <v>71</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>70</v>
       </c>
       <c r="G22" s="28"/>
-      <c r="H22" s="75"/>
+      <c r="H22" s="86"/>
     </row>
     <row r="23" spans="2:8" ht="87.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="10"/>
@@ -2631,117 +2634,117 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="10"/>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="E24" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="89" t="s">
-        <v>233</v>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="63" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="10"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="90"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="64"/>
     </row>
     <row r="26" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="91"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="65"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="10"/>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="92" t="s">
+      <c r="E27" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="92" t="s">
+      <c r="F27" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="86"/>
-      <c r="H27" s="89" t="s">
-        <v>235</v>
+      <c r="G27" s="75"/>
+      <c r="H27" s="63" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="10"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="90"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="64"/>
     </row>
     <row r="29" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="91"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="65"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="92" t="s">
-        <v>236</v>
-      </c>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="89" t="s">
+      <c r="E30" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="63" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="90"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="64"/>
     </row>
     <row r="32" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="10"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="91"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="65"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="10"/>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="81" t="s">
         <v>85</v>
       </c>
       <c r="E33" s="51" t="s">
@@ -2751,14 +2754,14 @@
       <c r="G33" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="87" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="68"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="52"/>
       <c r="F34" s="24" t="s">
         <v>91</v>
@@ -2766,25 +2769,25 @@
       <c r="G34" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="H34" s="60"/>
+      <c r="H34" s="88"/>
     </row>
     <row r="35" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="10"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="69"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="83"/>
       <c r="E35" s="52"/>
       <c r="F35" s="24" t="s">
         <v>92</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="61"/>
+      <c r="H35" s="89"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="10"/>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="67" t="s">
+      <c r="D36" s="81" t="s">
         <v>86</v>
       </c>
       <c r="E36" s="55" t="s">
@@ -2794,13 +2797,13 @@
       <c r="G36" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="H36" s="62" t="s">
+      <c r="H36" s="90" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="66"/>
-      <c r="D37" s="69"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="83"/>
       <c r="E37" s="53"/>
       <c r="F37" s="58" t="s">
         <v>94</v>
@@ -2808,31 +2811,31 @@
       <c r="G37" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="H37" s="63"/>
+      <c r="H37" s="91"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C38" s="82"/>
-      <c r="D38" s="79"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="79"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="59"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C39" s="81"/>
-      <c r="D39" s="79"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="79"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="59"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C40" s="81"/>
-      <c r="D40" s="79"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="79"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="59"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C41" s="45"/>
@@ -2840,6 +2843,35 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="D30:D32"/>
@@ -2852,37 +2884,8 @@
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="F24:F26"/>
     <mergeCell ref="G24:G26"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
     <mergeCell ref="G27:G29"/>
     <mergeCell ref="H27:H29"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2894,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF654078-5CCB-4471-828A-B938EED8C07B}">
   <dimension ref="A2:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2911,70 +2914,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="93" t="s">
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="93" t="s">
+      <c r="N2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="93" t="s">
+      <c r="O2" s="95" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="K3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -2984,35 +2987,35 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" s="2">
         <v>1234</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J4" s="2">
         <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>17</v>
@@ -3029,37 +3032,37 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5" s="2">
         <v>1234</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="2"/>
@@ -3069,26 +3072,26 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" s="2">
         <v>1234</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="2">
         <v>20</v>
@@ -3100,7 +3103,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="2"/>
@@ -3113,25 +3116,25 @@
         <v>120</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7" s="2">
         <v>1234</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J7" s="2">
         <v>20</v>
@@ -3143,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="2"/>
@@ -3371,6 +3374,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="N2:N3"/>
@@ -3379,7 +3383,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3410,26 +3413,26 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3441,16 +3444,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="98" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="61" t="s">
         <v>117</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>104</v>
@@ -3464,7 +3467,7 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>101</v>
@@ -3477,7 +3480,7 @@
         <v>107</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>107</v>
@@ -3495,7 +3498,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>101</v>
@@ -3504,7 +3507,7 @@
         <v>105</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>107</v>
@@ -3526,7 +3529,7 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>101</v>
@@ -3538,7 +3541,7 @@
         <v>107</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -3554,7 +3557,7 @@
         <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>101</v>
@@ -3563,13 +3566,13 @@
         <v>102</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -3584,10 +3587,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>101</v>
@@ -3596,13 +3599,13 @@
         <v>102</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H10" s="2">
         <v>4</v>
@@ -3615,10 +3618,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>101</v>
@@ -3631,23 +3634,23 @@
         <v>118</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>107</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>101</v>
@@ -3660,23 +3663,23 @@
         <v>119</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>107</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>101</v>
@@ -3685,19 +3688,19 @@
         <v>114</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>118</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>107</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
@@ -3843,27 +3846,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3875,22 +3878,22 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3898,16 +3901,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2">
@@ -3920,10 +3923,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="3"/>
@@ -3933,16 +3936,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
@@ -3954,29 +3957,29 @@
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
@@ -3988,29 +3991,29 @@
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
@@ -4022,23 +4025,23 @@
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J6" s="101" t="s">
-        <v>178</v>
+        <v>129</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>177</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>86</v>
@@ -4057,26 +4060,26 @@
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F8" s="2">
         <v>5</v>
@@ -4091,26 +4094,26 @@
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
@@ -4125,7 +4128,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
@@ -4258,12 +4261,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4292,488 +4295,488 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="93" t="s">
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="93" t="s">
+      <c r="M2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="93" t="s">
+      <c r="N2" s="95" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
+        <v>123</v>
+      </c>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K8" s="2">
         <v>30</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="101" t="s">
-        <v>222</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I12" s="2">
         <v>3</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H13" s="2">
         <v>-1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I14" s="2">
         <v>-1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="2"/>
